--- a/sorted_data/in_situ_classification/clean/comment_insitu_classified.xlsx
+++ b/sorted_data/in_situ_classification/clean/comment_insitu_classified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/interrogatives-corpus-work/sorted_data/in_situ_classification/clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4896B9E9-AFC9-B945-8EEC-089712A41364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8CAD37-DF76-1943-9649-368FEB8486A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-68780" yWindow="-10300" windowWidth="49120" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="53" r:id="rId3"/>
-    <pivotCache cacheId="58" r:id="rId4"/>
-    <pivotCache cacheId="62" r:id="rId5"/>
+    <pivotCache cacheId="64" r:id="rId3"/>
+    <pivotCache cacheId="65" r:id="rId4"/>
+    <pivotCache cacheId="66" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3438,6 +3438,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -3975,6 +3996,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -4512,6 +4554,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -5572,6 +5635,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -6114,6 +6198,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -6656,6 +6761,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -8182,6 +8308,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -8724,6 +8871,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -9261,6 +9429,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -19495,111 +19684,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{567D9E1A-C970-D443-80DF-B2B369607C30}" name="PivotTable4" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B153:C168" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of final" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8436FAF4-3192-6B4C-A72F-CA130BAFD1B8}" name="PivotTable3" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8436FAF4-3192-6B4C-A72F-CA130BAFD1B8}" name="PivotTable3" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B71:C82" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -19687,8 +19772,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A62335C2-E691-244C-BB33-06EAA40439F1}" name="PivotTable2" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A62335C2-E691-244C-BB33-06EAA40439F1}" name="PivotTable2" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B3:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -19706,6 +19791,110 @@
         <item x="1"/>
         <item x="6"/>
         <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of final" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{567D9E1A-C970-D443-80DF-B2B369607C30}" name="PivotTable4" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B153:C168" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="2"/>
         <item x="4"/>
         <item t="default"/>
       </items>
@@ -20114,14 +20303,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N174"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="103.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -25954,8 +26145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F0BAB2-67D3-F348-B0C6-0F659B6D6164}">
   <dimension ref="B3:AI238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="W249" sqref="W249"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="125" workbookViewId="0">
+      <selection activeCell="X137" sqref="X137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
